--- a/决战30天知识点整理记忆表 (1).xlsx
+++ b/决战30天知识点整理记忆表 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MakeMeHero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E9838B-E591-48E1-998F-50068293FEE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E72755-E442-435F-8C96-EB35E5664D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="71">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,11 +616,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01列出一些你常见的运行时异常？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12讲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼀下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java内存模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32什么是 CAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33ABA 问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01说一下什么是异常及举例？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14获取 Class 对象的 3 种方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01Java基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16使用反射创建对象的两种方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.4 种标准元注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.JAVA 内部类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03重载和重写的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09== 与 equals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13关于 final 关键字的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼀些总结</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1793,9 @@
       <c r="D43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
@@ -1727,7 +1808,9 @@
       <c r="D44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
@@ -1740,7 +1823,9 @@
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
@@ -1753,7 +1838,9 @@
       <c r="D46" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
@@ -1766,92 +1853,160 @@
       <c r="D47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A49" s="14"/>
+      <c r="B49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <f t="shared" ref="A51" si="4">A43+0.01</f>
         <v>1.08</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="9"/>
+      <c r="B52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="9"/>
+      <c r="B53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="9"/>
+      <c r="B57" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="9"/>
+      <c r="B58" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3213,12 +3368,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A235:A242"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="A155:A162"/>
+    <mergeCell ref="A163:A170"/>
+    <mergeCell ref="A171:A178"/>
+    <mergeCell ref="A179:A186"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="A203:A210"/>
+    <mergeCell ref="A211:A218"/>
+    <mergeCell ref="A219:A226"/>
+    <mergeCell ref="A227:A234"/>
     <mergeCell ref="A139:A146"/>
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="A59:A66"/>
@@ -3231,18 +3392,12 @@
     <mergeCell ref="A115:A122"/>
     <mergeCell ref="A123:A130"/>
     <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A235:A242"/>
-    <mergeCell ref="A147:A154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="A163:A170"/>
-    <mergeCell ref="A171:A178"/>
-    <mergeCell ref="A179:A186"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="A203:A210"/>
-    <mergeCell ref="A211:A218"/>
-    <mergeCell ref="A219:A226"/>
-    <mergeCell ref="A227:A234"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/决战30天知识点整理记忆表 (1).xlsx
+++ b/决战30天知识点整理记忆表 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MakeMeHero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E72755-E442-435F-8C96-EB35E5664D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B699D02-1988-4872-8795-D51C90CA6211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="102">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +701,164 @@
       <t>⼀些总结</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">02Spring IOC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10AOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>03Spring 中的 bean 的作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽤域有哪些</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11Spring Bean 生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12Spring 依赖注入四种方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14AOP 两种代理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13AOP 核心概念(术语)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01springMVC的执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10springMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02springMVC主要注解及其作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.Springboot运行机制,基于springbootapplication注解描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02SpringBoot的优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>03事物的四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼤特性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ACID)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11springbootORcloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03分布式事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06说一下 mybatis 的一级缓存和二级缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07如何配置二级缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 zookeeper 是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14Zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">04Eureka </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05Ribbon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06Hystrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07Feign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10网络 7 层架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07网络</t>
   </si>
 </sst>
 </file>
@@ -1127,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1916,7 +2074,9 @@
       <c r="D51" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
@@ -1929,7 +2089,9 @@
       <c r="D52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
@@ -1942,7 +2104,9 @@
       <c r="D53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
@@ -1955,7 +2119,9 @@
       <c r="D54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
@@ -1968,7 +2134,9 @@
       <c r="D55" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
@@ -1981,7 +2149,9 @@
       <c r="D56" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
@@ -1994,7 +2164,9 @@
       <c r="D57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
@@ -2007,183 +2179,361 @@
       <c r="D58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <f t="shared" ref="A59" si="5">A51+0.01</f>
         <v>1.0900000000000001</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="B59" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="B61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="B65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="B66" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <f t="shared" ref="A67" si="6">A59+0.01</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="B67" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="B68" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="B70" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="B71" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="B72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="B73" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="B74" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <f t="shared" ref="A75" si="7">A67+0.01</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="9"/>
+      <c r="B76" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="9"/>
+      <c r="B77" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="9"/>
+      <c r="B78" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="9"/>
+      <c r="B80" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="9"/>
+      <c r="B81" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="9"/>
+      <c r="B82" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3368,6 +3718,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="A131:A138"/>
     <mergeCell ref="A235:A242"/>
     <mergeCell ref="A147:A154"/>
     <mergeCell ref="A155:A162"/>
@@ -3380,24 +3748,6 @@
     <mergeCell ref="A211:A218"/>
     <mergeCell ref="A219:A226"/>
     <mergeCell ref="A227:A234"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="A107:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
